--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt16</t>
   </si>
   <si>
     <t>Lrp5</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3346426666666666</v>
+        <v>0.4491763333333333</v>
       </c>
       <c r="H2">
-        <v>1.003928</v>
+        <v>1.347529</v>
       </c>
       <c r="I2">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="J2">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N2">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q2">
-        <v>5.984844712279112</v>
+        <v>8.275588831226667</v>
       </c>
       <c r="R2">
-        <v>53.863602410512</v>
+        <v>74.48029948103999</v>
       </c>
       <c r="S2">
-        <v>0.09627279988627634</v>
+        <v>0.09215549153677523</v>
       </c>
       <c r="T2">
-        <v>0.09627279988627634</v>
+        <v>0.09215549153677524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3346426666666666</v>
+        <v>0.4491763333333333</v>
       </c>
       <c r="H3">
-        <v>1.003928</v>
+        <v>1.347529</v>
       </c>
       <c r="I3">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="J3">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>37.180959</v>
       </c>
       <c r="O3">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P3">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q3">
-        <v>4.147445089661333</v>
+        <v>5.566935611145667</v>
       </c>
       <c r="R3">
-        <v>37.327005806952</v>
+        <v>50.102420500311</v>
       </c>
       <c r="S3">
-        <v>0.06671620908343188</v>
+        <v>0.06199240900694472</v>
       </c>
       <c r="T3">
-        <v>0.0667162090834319</v>
+        <v>0.06199240900694472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3346426666666666</v>
+        <v>0.4491763333333333</v>
       </c>
       <c r="H4">
-        <v>1.003928</v>
+        <v>1.347529</v>
       </c>
       <c r="I4">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="J4">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N4">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q4">
-        <v>1.471496868982222</v>
+        <v>4.834795106787556</v>
       </c>
       <c r="R4">
-        <v>13.24347182084</v>
+        <v>43.513155961088</v>
       </c>
       <c r="S4">
-        <v>0.0236706431680931</v>
+        <v>0.05383942201966067</v>
       </c>
       <c r="T4">
-        <v>0.0236706431680931</v>
+        <v>0.05383942201966067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3346426666666666</v>
+        <v>0.4491763333333333</v>
       </c>
       <c r="H5">
-        <v>1.003928</v>
+        <v>1.347529</v>
       </c>
       <c r="I5">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="J5">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N5">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q5">
-        <v>1.888400838231111</v>
+        <v>2.524504847880666</v>
       </c>
       <c r="R5">
-        <v>16.99560754407999</v>
+        <v>22.720543630926</v>
       </c>
       <c r="S5">
-        <v>0.03037700136665161</v>
+        <v>0.02811243887148635</v>
       </c>
       <c r="T5">
-        <v>0.03037700136665161</v>
+        <v>0.02811243887148635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>3.572622</v>
       </c>
       <c r="I6">
-        <v>0.7723561083228934</v>
+        <v>0.6259569937989885</v>
       </c>
       <c r="J6">
-        <v>0.7723561083228933</v>
+        <v>0.6259569937989886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N6">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O6">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P6">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q6">
-        <v>21.297929618132</v>
+        <v>21.94056730608</v>
       </c>
       <c r="R6">
-        <v>191.681366563188</v>
+        <v>197.46510575472</v>
       </c>
       <c r="S6">
-        <v>0.3426005877665613</v>
+        <v>0.2443262716313318</v>
       </c>
       <c r="T6">
-        <v>0.3426005877665613</v>
+        <v>0.2443262716313319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>3.572622</v>
       </c>
       <c r="I7">
-        <v>0.7723561083228934</v>
+        <v>0.6259569937989885</v>
       </c>
       <c r="J7">
-        <v>0.7723561083228933</v>
+        <v>0.6259569937989886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>37.180959</v>
       </c>
       <c r="O7">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P7">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q7">
         <v>14.759279122722</v>
@@ -883,10 +883,10 @@
         <v>132.833512104498</v>
       </c>
       <c r="S7">
-        <v>0.2374192136568246</v>
+        <v>0.1643567182978688</v>
       </c>
       <c r="T7">
-        <v>0.2374192136568246</v>
+        <v>0.1643567182978688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>3.572622</v>
       </c>
       <c r="I8">
-        <v>0.7723561083228934</v>
+        <v>0.6259569937989885</v>
       </c>
       <c r="J8">
-        <v>0.7723561083228933</v>
+        <v>0.6259569937989886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N8">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O8">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P8">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q8">
-        <v>5.236532985489999</v>
+        <v>12.818199358976</v>
       </c>
       <c r="R8">
-        <v>47.12879686941</v>
+        <v>115.363794230784</v>
       </c>
       <c r="S8">
-        <v>0.08423538394833006</v>
+        <v>0.1427411978330144</v>
       </c>
       <c r="T8">
-        <v>0.08423538394833006</v>
+        <v>0.1427411978330144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>3.572622</v>
       </c>
       <c r="I9">
-        <v>0.7723561083228934</v>
+        <v>0.6259569937989885</v>
       </c>
       <c r="J9">
-        <v>0.7723561083228933</v>
+        <v>0.6259569937989886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N9">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O9">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P9">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q9">
-        <v>6.72014564738</v>
+        <v>6.693066760451999</v>
       </c>
       <c r="R9">
-        <v>60.48131082641999</v>
+        <v>60.23760084406799</v>
       </c>
       <c r="S9">
-        <v>0.1081009229511774</v>
+        <v>0.07453280603677344</v>
       </c>
       <c r="T9">
-        <v>0.1081009229511774</v>
+        <v>0.07453280603677345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.016355</v>
+        <v>0.06510733333333334</v>
       </c>
       <c r="H10">
-        <v>0.049065</v>
+        <v>0.195322</v>
       </c>
       <c r="I10">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="J10">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N10">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O10">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P10">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q10">
-        <v>0.2924974757233333</v>
+        <v>1.199532300746667</v>
       </c>
       <c r="R10">
-        <v>2.63247728151</v>
+        <v>10.79579070672</v>
       </c>
       <c r="S10">
-        <v>0.004705143124228181</v>
+        <v>0.01335777925220608</v>
       </c>
       <c r="T10">
-        <v>0.004705143124228181</v>
+        <v>0.01335777925220608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.016355</v>
+        <v>0.06510733333333334</v>
       </c>
       <c r="H11">
-        <v>0.049065</v>
+        <v>0.195322</v>
       </c>
       <c r="I11">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="J11">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>37.180959</v>
       </c>
       <c r="O11">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P11">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q11">
-        <v>0.202698194815</v>
+        <v>0.8069176970886668</v>
       </c>
       <c r="R11">
-        <v>1.824283753335</v>
+        <v>7.262259273798001</v>
       </c>
       <c r="S11">
-        <v>0.003260623071254697</v>
+        <v>0.008985692561758934</v>
       </c>
       <c r="T11">
-        <v>0.003260623071254698</v>
+        <v>0.008985692561758934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.016355</v>
+        <v>0.06510733333333334</v>
       </c>
       <c r="H12">
-        <v>0.049065</v>
+        <v>0.195322</v>
       </c>
       <c r="I12">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="J12">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N12">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O12">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P12">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q12">
-        <v>0.07191650584166666</v>
+        <v>0.7007951961315556</v>
       </c>
       <c r="R12">
-        <v>0.6472485525749999</v>
+        <v>6.307156765184</v>
       </c>
       <c r="S12">
-        <v>0.001156855976765752</v>
+        <v>0.007803931186433956</v>
       </c>
       <c r="T12">
-        <v>0.001156855976765752</v>
+        <v>0.007803931186433955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.016355</v>
+        <v>0.06510733333333334</v>
       </c>
       <c r="H13">
-        <v>0.049065</v>
+        <v>0.195322</v>
       </c>
       <c r="I13">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="J13">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N13">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O13">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P13">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q13">
-        <v>0.09229186468333332</v>
+        <v>0.3659226153186667</v>
       </c>
       <c r="R13">
-        <v>0.8306267821499999</v>
+        <v>3.293303537868</v>
       </c>
       <c r="S13">
-        <v>0.00148461600040517</v>
+        <v>0.004074849435712668</v>
       </c>
       <c r="T13">
-        <v>0.00148461600040517</v>
+        <v>0.004074849435712668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1973276666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.5919829999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="J14">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.42392</v>
+      </c>
+      <c r="N14">
+        <v>55.27176</v>
+      </c>
+      <c r="O14">
+        <v>0.3903243738016154</v>
+      </c>
+      <c r="P14">
+        <v>0.3903243738016154</v>
+      </c>
+      <c r="Q14">
+        <v>3.635549144453333</v>
+      </c>
+      <c r="R14">
+        <v>32.71994230008</v>
+      </c>
+      <c r="S14">
+        <v>0.04048483138130222</v>
+      </c>
+      <c r="T14">
+        <v>0.04048483138130223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1973276666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.5919829999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="J15">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.393653</v>
+      </c>
+      <c r="N15">
+        <v>37.180959</v>
+      </c>
+      <c r="O15">
+        <v>0.2625687066780312</v>
+      </c>
+      <c r="P15">
+        <v>0.2625687066780312</v>
+      </c>
+      <c r="Q15">
+        <v>2.445610627966333</v>
+      </c>
+      <c r="R15">
+        <v>22.010495651697</v>
+      </c>
+      <c r="S15">
+        <v>0.02723388681145872</v>
+      </c>
+      <c r="T15">
+        <v>0.02723388681145872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1973276666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.5919829999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="J16">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.76369066666667</v>
+      </c>
+      <c r="N16">
+        <v>32.291072</v>
+      </c>
+      <c r="O16">
+        <v>0.2280367489253622</v>
+      </c>
+      <c r="P16">
+        <v>0.2280367489253622</v>
+      </c>
+      <c r="Q16">
+        <v>2.123973963975111</v>
+      </c>
+      <c r="R16">
+        <v>19.115765675776</v>
+      </c>
+      <c r="S16">
+        <v>0.02365219788625312</v>
+      </c>
+      <c r="T16">
+        <v>0.02365219788625312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1973276666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.5919829999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="J17">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.620297999999999</v>
+      </c>
+      <c r="N17">
+        <v>16.860894</v>
+      </c>
+      <c r="O17">
+        <v>0.1190701705949913</v>
+      </c>
+      <c r="P17">
+        <v>0.1190701705949913</v>
+      </c>
+      <c r="Q17">
+        <v>1.109040290311333</v>
+      </c>
+      <c r="R17">
+        <v>9.981362612801998</v>
+      </c>
+      <c r="S17">
+        <v>0.01235007625101879</v>
+      </c>
+      <c r="T17">
+        <v>0.01235007625101879</v>
       </c>
     </row>
   </sheetData>
